--- a/数据/1/stacking/样本熵/CE_sampen.xlsx
+++ b/数据/1/stacking/样本熵/CE_sampen.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\大学\大四学年（2019-2020）\下学期\毕设\数据\1\stacking\样本熵\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29EBCD7A-67F5-4BD8-AE1B-DB8B1565FA92}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17866E87-3595-4F7A-BFF7-791496461F61}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{738744B0-EEEE-4346-B029-E13427BE8646}"/>
+    <workbookView xWindow="1116" yWindow="360" windowWidth="19668" windowHeight="12360" xr2:uid="{738744B0-EEEE-4346-B029-E13427BE8646}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="0.00000_);[Red]\(0.00000\)"/>
+    <numFmt numFmtId="176" formatCode="0.00000_);[Red]\(0.00000\)"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -104,7 +104,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -423,8 +423,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAAC76DF-036C-4570-8E83-EF8AFF13FAD3}">
   <dimension ref="A1:I801"/>
   <sheetViews>
-    <sheetView topLeftCell="A779" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I801"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D801" sqref="D1:D801"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -433,8 +433,8 @@
     <col min="3" max="3" width="23.5546875" customWidth="1"/>
     <col min="4" max="5" width="23" customWidth="1"/>
     <col min="6" max="6" width="20.88671875" customWidth="1"/>
-    <col min="7" max="7" width="26" customWidth="1"/>
-    <col min="8" max="8" width="21.88671875" customWidth="1"/>
+    <col min="7" max="7" width="18.33203125" customWidth="1"/>
+    <col min="8" max="8" width="13.6640625" customWidth="1"/>
     <col min="9" max="9" width="24.109375" customWidth="1"/>
     <col min="10" max="10" width="29.21875" customWidth="1"/>
     <col min="11" max="11" width="28.44140625" customWidth="1"/>
@@ -26882,7 +26882,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1551F59-47CA-4A1A-B1DE-AD3097E76F8C}">
   <dimension ref="A1:G800"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A775" workbookViewId="0">
+    <sheetView topLeftCell="A775" workbookViewId="0">
       <selection activeCell="E1" sqref="E1:E800"/>
     </sheetView>
   </sheetViews>
